--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,26 +5560,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13919,7 +13919,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13928,12 +13928,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -7796,7 +7796,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,26 +5560,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13919,7 +13919,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13928,12 +13928,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,26 +5560,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13919,7 +13919,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13928,12 +13928,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -13352,7 +13352,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -14103,7 +14103,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -18759,7 +18759,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -11183,7 +11183,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Jotabeche SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,26 +5608,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -11519,7 +11519,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F233" t="n">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -11519,7 +11519,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,26 +5656,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,26 +5704,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14024,12 +14024,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14072,12 +14072,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,26 +5704,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14072,12 +14072,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,26 +5704,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14072,12 +14072,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,26 +5704,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14072,12 +14072,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,26 +5800,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12570,16 +12570,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14159,7 +14159,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14168,12 +14168,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,26 +5800,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12570,16 +12570,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14159,7 +14159,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14168,12 +14168,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,26 +5752,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,26 +5800,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12522,16 +12522,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12540,12 +12540,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12570,16 +12570,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14159,7 +14159,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14168,12 +14168,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,26 +5800,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12570,16 +12570,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14159,7 +14159,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14168,12 +14168,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,26 +5800,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12570,16 +12570,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14159,7 +14159,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14168,12 +14168,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>12/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12618,16 +12618,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,26 +5944,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12714,16 +12714,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12732,12 +12732,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14312,12 +14312,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,26 +5896,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,26 +5944,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12666,16 +12666,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12684,12 +12684,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12714,16 +12714,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12732,12 +12732,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14312,12 +14312,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/08/2023</t>
+          <t>07/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,26 +5944,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,26 +5992,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12714,16 +12714,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12732,12 +12732,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12762,16 +12762,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14312,12 +14312,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,26 +5944,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,26 +5992,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12714,16 +12714,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12732,12 +12732,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12762,16 +12762,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14312,12 +14312,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,26 +5944,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,26 +5992,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12714,16 +12714,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12732,12 +12732,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12762,16 +12762,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14312,12 +14312,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,26 +5992,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,26 +6040,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12762,16 +12762,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12810,16 +12810,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12828,12 +12828,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14399,7 +14399,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14408,12 +14408,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,26 +5992,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,26 +6040,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12762,16 +12762,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12780,12 +12780,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12810,16 +12810,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12828,12 +12828,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14399,7 +14399,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14408,12 +14408,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Línea 110 kV Cerrillos - Atacama Kozán</t>
+          <t>Modernización Fundición HVL - Paipote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2200</v>
+        <v>1.37816</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160547611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160473041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modernización Fundición HVL - Paipote</t>
+          <t>Nueva Línea 110 kV Cerrillos - Atacama Kozán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37816</v>
+        <v>2200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160473041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160547611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,26 +6088,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,26 +6136,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12858,16 +12858,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12876,12 +12876,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12906,16 +12906,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12924,12 +12924,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14447,7 +14447,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14456,12 +14456,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modernización Fundición HVL - Paipote</t>
+          <t>Nueva Línea 110 kV Cerrillos - Atacama Kozán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,11 +439,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37816</v>
+        <v>2200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160473041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160547611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Línea 110 kV Cerrillos - Atacama Kozán</t>
+          <t>Modernización Fundición HVL - Paipote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2200</v>
+        <v>1.37816</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160547611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160473041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,26 +6088,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,26 +6136,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12858,16 +12858,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12876,12 +12876,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12906,16 +12906,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12924,12 +12924,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14447,7 +14447,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14456,12 +14456,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,26 +6088,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,26 +6136,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12858,16 +12858,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12876,12 +12876,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12906,16 +12906,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12924,12 +12924,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14447,7 +14447,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14456,12 +14456,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,26 +6136,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,26 +6184,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12906,16 +12906,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12924,12 +12924,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12954,16 +12954,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12972,12 +12972,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,7 +14543,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14552,12 +14552,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Prospección Tierra Morena</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Prospección Tierra Morena</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad por Acciones Mantos de Fuego SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128982166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,26 +6136,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,26 +6184,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12906,16 +12906,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Minera Catania Verde S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>12000</v>
+        <v>1750</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12924,12 +12924,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Explotación Yacimiento Minero Cerro La Plata (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12954,16 +12954,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Catania Verde S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12972,12 +12972,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3305887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
+          <t>Mantos de Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2800</v>
+        <v>25000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Mantos de Cobre (e-seia)</t>
+          <t>Ampliación Planta de Autogeneración Eléctrica (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,7 +14543,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14552,12 +14552,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Tierra Amarilla.xlsx
+++ b/data/Tierra Amarilla.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
